--- a/tests/fixtures/viewers/test-spreadsheet.xlsx
+++ b/tests/fixtures/viewers/test-spreadsheet.xlsx
@@ -1,48 +1,391 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Sales" sheetId="1" r:id="rId1"/>
-    <sheet name="Employees" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Projects" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Budget" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Team" state="visible" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Lot 48 Development</t>
+  </si>
+  <si>
+    <t>Leslie Knope</t>
+  </si>
+  <si>
+    <t>Parks</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>Harvest Festival</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>2024-06-01</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>Unity Concert</t>
+  </si>
+  <si>
+    <t>Andy Dwyer</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>Pawnee Commons</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>Ramsett Park Renovation</t>
+  </si>
+  <si>
+    <t>Ron Swanson</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-11-30</t>
+  </si>
+  <si>
+    <t>Li'l Sebastian Memorial</t>
+  </si>
+  <si>
+    <t>Ben Wyatt</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>Sweetums Sponsorship Deal</t>
+  </si>
+  <si>
+    <t>Tom Haverford</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Negotiating</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>Pawnee Goddess Program</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>Snake Hole Lounge Permits</t>
+  </si>
+  <si>
+    <t>April Ludgate</t>
+  </si>
+  <si>
+    <t>Permits</t>
+  </si>
+  <si>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>JJ's Diner Landmark Status</t>
+  </si>
+  <si>
+    <t>Historic</t>
+  </si>
+  <si>
+    <t>2024-06-15</t>
+  </si>
+  <si>
+    <t>2024-12-01</t>
+  </si>
+  <si>
+    <t>Rec Center Basketball League</t>
+  </si>
+  <si>
+    <t>Chris Traeger</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>2024-09-01</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>Wamapoke Trail Restoration</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Deputy Director</t>
+  </si>
+  <si>
+    <t>2004-03-15</t>
+  </si>
+  <si>
+    <t>555-0101</t>
+  </si>
+  <si>
+    <t>lknope@pawnee.gov</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>1998-01-02</t>
+  </si>
+  <si>
+    <t>555-0102</t>
+  </si>
+  <si>
+    <t>rswanson@pawnee.gov</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>2006-08-20</t>
+  </si>
+  <si>
+    <t>555-0103</t>
+  </si>
+  <si>
+    <t>thaverford@pawnee.gov</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>2009-04-01</t>
+  </si>
+  <si>
+    <t>555-0104</t>
+  </si>
+  <si>
+    <t>aludgate@pawnee.gov</t>
+  </si>
+  <si>
+    <t>Shoe Shinist</t>
+  </si>
+  <si>
+    <t>2010-06-15</t>
+  </si>
+  <si>
+    <t>555-0105</t>
+  </si>
+  <si>
+    <t>adwyer@pawnee.gov</t>
+  </si>
+  <si>
+    <t>Ann Perkins</t>
+  </si>
+  <si>
+    <t>Health Liaison</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>2009-02-01</t>
+  </si>
+  <si>
+    <t>555-0106</t>
+  </si>
+  <si>
+    <t>aperkins@pawnee.gov</t>
+  </si>
+  <si>
+    <t>City Manager</t>
+  </si>
+  <si>
+    <t>2010-09-01</t>
+  </si>
+  <si>
+    <t>555-0107</t>
+  </si>
+  <si>
+    <t>bwyatt@pawnee.gov</t>
+  </si>
+  <si>
+    <t>Asst. City Manager</t>
+  </si>
+  <si>
+    <t>555-0108</t>
+  </si>
+  <si>
+    <t>ctraeger@pawnee.gov</t>
+  </si>
+  <si>
+    <t>Donna Meagle</t>
+  </si>
+  <si>
+    <t>Office Manager</t>
+  </si>
+  <si>
+    <t>2002-11-10</t>
+  </si>
+  <si>
+    <t>555-0109</t>
+  </si>
+  <si>
+    <t>dmeagle@pawnee.gov</t>
+  </si>
+  <si>
+    <t>Jerry Gergich</t>
+  </si>
+  <si>
+    <t>1977-05-22</t>
+  </si>
+  <si>
+    <t>555-0110</t>
+  </si>
+  <si>
+    <t>jgergich@pawnee.gov</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,14 +408,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,214 +749,788 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="7" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Product</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Q1</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Q2</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Q3</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Q4</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Widget A</v>
-      </c>
-      <c r="B2">
-        <v>1200</v>
-      </c>
-      <c r="C2">
-        <v>1500</v>
-      </c>
-      <c r="D2">
-        <v>1800</v>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>2100</v>
-      </c>
-      <c r="F2">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Widget B</v>
-      </c>
-      <c r="B3">
-        <v>800</v>
-      </c>
-      <c r="C3">
-        <v>900</v>
-      </c>
-      <c r="D3">
-        <v>1100</v>
+        <v>150000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>1400</v>
-      </c>
-      <c r="F3">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Gadget X</v>
-      </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4">
-        <v>2200</v>
-      </c>
-      <c r="D4">
-        <v>1900</v>
+        <v>75000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
       </c>
       <c r="E4">
+        <v>25000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>500000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>45000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>12000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>100000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>8000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
         <v>2500</v>
       </c>
-      <c r="F4">
-        <v>8600</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Gadget Y</v>
-      </c>
-      <c r="B5">
-        <v>500</v>
-      </c>
-      <c r="C5">
-        <v>600</v>
-      </c>
-      <c r="D5">
-        <v>750</v>
-      </c>
-      <c r="E5">
-        <v>900</v>
-      </c>
-      <c r="F5">
-        <v>2750</v>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>15000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>35000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="6" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Department</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Salary</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Start Date</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>125000</v>
+      </c>
+      <c r="C2">
+        <v>125000</v>
+      </c>
+      <c r="D2">
+        <v>130000</v>
+      </c>
+      <c r="E2">
+        <v>130000</v>
+      </c>
+      <c r="F2">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>15000</v>
+      </c>
+      <c r="C3">
+        <v>8000</v>
+      </c>
+      <c r="D3">
+        <v>12000</v>
+      </c>
+      <c r="E3">
+        <v>20000</v>
+      </c>
+      <c r="F3">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="C4">
+        <v>7500</v>
+      </c>
+      <c r="D4">
+        <v>6000</v>
+      </c>
+      <c r="E4">
+        <v>8000</v>
+      </c>
+      <c r="F4">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>20000</v>
+      </c>
+      <c r="C5">
+        <v>45000</v>
+      </c>
+      <c r="D5">
+        <v>35000</v>
+      </c>
+      <c r="E5">
+        <v>15000</v>
+      </c>
+      <c r="F5">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>18000</v>
+      </c>
+      <c r="C6">
+        <v>22000</v>
+      </c>
+      <c r="D6">
+        <v>25000</v>
+      </c>
+      <c r="E6">
+        <v>18000</v>
+      </c>
+      <c r="F6">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>8000</v>
+      </c>
+      <c r="C7">
+        <v>12000</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="E7">
+        <v>15000</v>
+      </c>
+      <c r="F7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8">
+        <v>40000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Alice Smith</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Engineering</v>
-      </c>
-      <c r="D2">
-        <v>95000</v>
-      </c>
-      <c r="E2" t="str">
-        <v>2022-01-15</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>65000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Bob Johnson</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Marketing</v>
-      </c>
-      <c r="D3">
-        <v>75000</v>
-      </c>
-      <c r="E3" t="str">
-        <v>2021-06-01</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>72000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Carol White</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Engineering</v>
-      </c>
-      <c r="D4">
-        <v>105000</v>
-      </c>
-      <c r="E4" t="str">
-        <v>2020-03-10</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>48000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>David Brown</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Sales</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>32000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>28000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7">
+        <v>58000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
         <v>85000</v>
       </c>
-      <c r="E5" t="str">
-        <v>2023-02-20</v>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>80000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>52000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>45000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>